--- a/biology/Botanique/Reichardia_picroides/Reichardia_picroides.xlsx
+++ b/biology/Botanique/Reichardia_picroides/Reichardia_picroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reichardia picroides, appelée communément Cousteline ou Picridie, est une espèce de plantes à fleurs de la famille des Astéracées d'origine méditerranéenne.
 C'est une plante herbacée.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois appelée Picridium vulgare, la plante n'est pas amère comme le suggère son étymologie (grec pikridios, « amer ») mais plusieurs espèces proches le sont[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois appelée Picridium vulgare, la plante n'est pas amère comme le suggère son étymologie (grec pikridios, « amer ») mais plusieurs espèces proches le sont.
 </t>
         </is>
       </c>
@@ -543,32 +557,34 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hypochaeris hirta Ucria[1],[3]
-Picridium crassifolium Willk.[1],[3]
-Picridium intermedium var. gracile Sch.Bip.[1],[3]
-Picridium istriacum Gand.[3]
-Picridium lesbiacum P.Candargy[1],[3]
-Picridium lingulatum Boiss.[3]
-Picridium maritimum Rchb.f.[1],[3]
-Picridium mixtum Gand.[3]
-Picridium picroides (L.) H.Karst.[1],[3]
-Picridium prenanthoides B.D.Jacks.[3]
-Picridium rupestre Pomel[1],[3]
-Picridium sadleri Gand.[1],[3]
-Picridium vulgare Desf.[1],[3]
-Picridium vulgare subsp. vulgare[3]
-Picridium vulgare var. vulgare[3]
-Reichardia integrifolia Moench[1],[3]
-Reichardia picroides var. intermedium Hochr.[1]
-Reichardia picroides var. maritima (Batt.) Maire[3]
-Reichardia picroides var. picroides[3]
-Scorzonera picroides L.[1],[3]
-Scorzonera variifolia Salisb.[1],[3]
-Sonchus bocconi DC.[1],[3]
-Sonchus picroides (L.) All.[1],[3]
-Sonchus squamosus Lam.[1],[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypochaeris hirta Ucria,
+Picridium crassifolium Willk.,
+Picridium intermedium var. gracile Sch.Bip.,
+Picridium istriacum Gand.
+Picridium lesbiacum P.Candargy,
+Picridium lingulatum Boiss.
+Picridium maritimum Rchb.f.,
+Picridium mixtum Gand.
+Picridium picroides (L.) H.Karst.,
+Picridium prenanthoides B.D.Jacks.
+Picridium rupestre Pomel,
+Picridium sadleri Gand.,
+Picridium vulgare Desf.,
+Picridium vulgare subsp. vulgare
+Picridium vulgare var. vulgare
+Reichardia integrifolia Moench,
+Reichardia picroides var. intermedium Hochr.
+Reichardia picroides var. maritima (Batt.) Maire
+Reichardia picroides var. picroides
+Scorzonera picroides L.,
+Scorzonera variifolia Salisb.,
+Sonchus bocconi DC.,
+Sonchus picroides (L.) All.,
+Sonchus squamosus Lam.,</t>
         </is>
       </c>
     </row>
@@ -596,12 +612,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (8 février 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (8 février 2020) :
 variété Reichardia picroides var. intermedia Fiori
 variété Reichardia picroides var. picroides
-Selon World Register of Marine Species                               (8 février 2020)[3] :
+Selon World Register of Marine Species                               (8 février 2020) :
 sous-espèce Reichardia picroides subsp. picroides (L.) Roth
 variété Reichardia picroides var. gracilis (Sch.Bip.) O.Bolòs &amp; Vigo
 variété Reichardia picroides var. intermedia (Sch.Bip.) Fiori
